--- a/0310_SetlistTransform.xlsx
+++ b/0310_SetlistTransform.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Setlist Input" sheetId="1" state="visible" r:id="rId2"/>
@@ -327,8 +327,8 @@
   </sheetPr>
   <dimension ref="A1:M598"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -420,7 +420,7 @@
         <v/>
       </c>
       <c r="L2" s="13" t="str">
-        <f aca="false">IF(F2,"&lt;Song&gt;&lt;Title&gt;"&amp;H2&amp;"&lt;/Title&gt;&lt;FileName&gt;"&amp;I2&amp;"&lt;/FileName&gt;&lt;/FileType&gt;1&lt;/FileType&gt;","")</f>
+        <f aca="false">IF(F2,"&lt;Song&gt;&lt;Title&gt;"&amp;H2&amp;"&lt;/Title&gt;&lt;FileName&gt;"&amp;I2&amp;"&lt;/FileName&gt;&lt;FileType&gt;1&lt;/FileType&gt;&lt;/Song&gt;","")</f>
         <v/>
       </c>
       <c r="M2" s="13" t="str">
@@ -3426,7 +3426,7 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
